--- a/dataExcel/【Tec-9 _ 腐朽木乃伊 (崭新出厂)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【Tec-9 _ 腐朽木乃伊 (崭新出厂)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,859 +422,859 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 06:10:22</v>
+        <v>2023-09-18 00:20:45</v>
       </c>
       <c r="B8">
-        <v>28.79</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>40.59</v>
+        <v>38.19</v>
       </c>
       <c r="D8">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>26.1</v>
       </c>
       <c r="F8">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 11:42:15</v>
+        <v>2023-09-18 05:29:16</v>
       </c>
       <c r="B9">
-        <v>28.59</v>
+        <v>27.7</v>
       </c>
       <c r="C9">
-        <v>40.38</v>
+        <v>37.24</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="E9">
-        <v>28.1</v>
+        <v>26.1</v>
       </c>
       <c r="F9">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 17:00:52</v>
+        <v>2023-09-18 10:38:26</v>
       </c>
       <c r="B10">
-        <v>28.18</v>
+        <v>27.8</v>
       </c>
       <c r="C10">
-        <v>40.29</v>
+        <v>37.24</v>
       </c>
       <c r="D10">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E10">
-        <v>28.1</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 22:21:17</v>
+        <v>2023-09-18 15:49:58</v>
       </c>
       <c r="B11">
-        <v>28.1</v>
+        <v>27.79</v>
       </c>
       <c r="C11">
-        <v>40.29</v>
+        <v>35.94</v>
       </c>
       <c r="D11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 03:32:09</v>
+        <v>2023-09-18 20:59:26</v>
       </c>
       <c r="B12">
-        <v>27.98</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>40.74</v>
+        <v>35.94</v>
       </c>
       <c r="D12">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E12">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F12">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 08:41:06</v>
+        <v>2023-09-19 02:09:22</v>
       </c>
       <c r="B13">
-        <v>27.98</v>
+        <v>27.39</v>
       </c>
       <c r="C13">
-        <v>40.74</v>
+        <v>34.26</v>
       </c>
       <c r="D13">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E13">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 13:56:00</v>
+        <v>2023-09-19 07:20:28</v>
       </c>
       <c r="B14">
-        <v>27.68</v>
+        <v>27.25</v>
       </c>
       <c r="C14">
-        <v>40.59</v>
+        <v>37.34</v>
       </c>
       <c r="D14">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E14">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F14">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 19:07:43</v>
+        <v>2023-09-19 12:30:07</v>
       </c>
       <c r="B15">
-        <v>27.39</v>
+        <v>27.25</v>
       </c>
       <c r="C15">
-        <v>40.36</v>
+        <v>37.19</v>
       </c>
       <c r="D15">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E15">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 00:20:45</v>
+        <v>2023-09-19 17:40:18</v>
       </c>
       <c r="B16">
         <v>27</v>
       </c>
       <c r="C16">
-        <v>38.19</v>
+        <v>36.68</v>
       </c>
       <c r="D16">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E16">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F16">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 05:29:16</v>
+        <v>2023-09-19 22:49:17</v>
       </c>
       <c r="B17">
-        <v>27.7</v>
+        <v>27.27</v>
       </c>
       <c r="C17">
-        <v>37.24</v>
+        <v>36.02</v>
       </c>
       <c r="D17">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E17">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F17">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 10:38:26</v>
+        <v>2023-09-20 04:00:17</v>
       </c>
       <c r="B18">
-        <v>27.8</v>
+        <v>27.27</v>
       </c>
       <c r="C18">
-        <v>37.24</v>
+        <v>37.34</v>
       </c>
       <c r="D18">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F18">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 15:49:58</v>
+        <v>2023-09-20 09:11:48</v>
       </c>
       <c r="B19">
-        <v>27.79</v>
+        <v>27.19</v>
       </c>
       <c r="C19">
-        <v>35.94</v>
+        <v>37.44</v>
       </c>
       <c r="D19">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F19">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 20:59:26</v>
+        <v>2023-09-20 14:18:52</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>27.28</v>
       </c>
       <c r="C20">
-        <v>35.94</v>
+        <v>37.51</v>
       </c>
       <c r="D20">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E20">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F20">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 02:09:22</v>
+        <v>2023-09-20 19:30:37</v>
       </c>
       <c r="B21">
-        <v>27.39</v>
+        <v>26.68</v>
       </c>
       <c r="C21">
-        <v>34.26</v>
+        <v>37.51</v>
       </c>
       <c r="D21">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E21">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F21">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 07:20:28</v>
+        <v>2023-09-21 00:38:55</v>
       </c>
       <c r="B22">
-        <v>27.25</v>
+        <v>26.9</v>
       </c>
       <c r="C22">
-        <v>37.34</v>
+        <v>34.36</v>
       </c>
       <c r="D22">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E22">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F22">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 12:30:07</v>
+        <v>2023-09-21 05:51:30</v>
       </c>
       <c r="B23">
-        <v>27.25</v>
+        <v>26.9</v>
       </c>
       <c r="C23">
-        <v>37.19</v>
+        <v>34.9</v>
       </c>
       <c r="D23">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E23">
         <v>26.3</v>
       </c>
       <c r="F23">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 17:40:18</v>
+        <v>2023-09-21 11:00:42</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C24">
-        <v>36.68</v>
+        <v>34.9</v>
       </c>
       <c r="D24">
         <v>328</v>
       </c>
       <c r="E24">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F24">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 22:49:17</v>
+        <v>2023-09-21 16:12:07</v>
       </c>
       <c r="B25">
-        <v>27.27</v>
+        <v>27.07</v>
       </c>
       <c r="C25">
-        <v>36.02</v>
+        <v>34.9</v>
       </c>
       <c r="D25">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E25">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F25">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 04:00:17</v>
+        <v>2023-09-21 21:20:04</v>
       </c>
       <c r="B26">
-        <v>27.27</v>
+        <v>27.06</v>
       </c>
       <c r="C26">
-        <v>37.34</v>
+        <v>37.53</v>
       </c>
       <c r="D26">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E26">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F26">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 09:11:48</v>
+        <v>2023-09-22 02:29:16</v>
       </c>
       <c r="B27">
-        <v>27.19</v>
+        <v>26.96</v>
       </c>
       <c r="C27">
-        <v>37.44</v>
+        <v>37.38</v>
       </c>
       <c r="D27">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E27">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F27">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 14:18:52</v>
+        <v>2023-09-22 07:40:28</v>
       </c>
       <c r="B28">
-        <v>27.28</v>
+        <v>27.06</v>
       </c>
       <c r="C28">
-        <v>37.51</v>
+        <v>37.64</v>
       </c>
       <c r="D28">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E28">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F28">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 19:30:37</v>
+        <v>2023-09-22 12:51:21</v>
       </c>
       <c r="B29">
-        <v>26.68</v>
+        <v>27.4</v>
       </c>
       <c r="C29">
-        <v>37.51</v>
+        <v>37.64</v>
       </c>
       <c r="D29">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="E29">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F29">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 00:38:55</v>
+        <v>2023-09-22 18:00:17</v>
       </c>
       <c r="B30">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C30">
-        <v>34.36</v>
+        <v>36.76</v>
       </c>
       <c r="D30">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="E30">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F30">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 05:51:30</v>
+        <v>2023-09-22 23:11:57</v>
       </c>
       <c r="B31">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>34.9</v>
+        <v>35.74</v>
       </c>
       <c r="D31">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="E31">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F31">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 11:00:42</v>
+        <v>2023-09-23 04:21:17</v>
       </c>
       <c r="B32">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C32">
-        <v>34.9</v>
+        <v>37.07</v>
       </c>
       <c r="D32">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="E32">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="F32">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 16:12:07</v>
+        <v>2023-09-23 09:31:36</v>
       </c>
       <c r="B33">
-        <v>27.07</v>
+        <v>27.6</v>
       </c>
       <c r="C33">
-        <v>34.9</v>
+        <v>35.83</v>
       </c>
       <c r="D33">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="E33">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="F33">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 21:20:04</v>
+        <v>2023-09-23 14:41:38</v>
       </c>
       <c r="B34">
-        <v>27.06</v>
+        <v>27.4</v>
       </c>
       <c r="C34">
-        <v>37.53</v>
+        <v>37.15</v>
       </c>
       <c r="D34">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="E34">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F34">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 02:29:16</v>
+        <v>2023-09-23 19:52:44</v>
       </c>
       <c r="B35">
-        <v>26.96</v>
+        <v>26.9</v>
       </c>
       <c r="C35">
-        <v>37.38</v>
+        <v>36.49</v>
       </c>
       <c r="D35">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E35">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="F35">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 07:40:28</v>
+        <v>2023-09-24 01:02:11</v>
       </c>
       <c r="B36">
-        <v>27.06</v>
+        <v>27.5</v>
       </c>
       <c r="C36">
-        <v>37.64</v>
+        <v>34.52</v>
       </c>
       <c r="D36">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="E36">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="F36">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 12:51:21</v>
+        <v>2023-09-24 06:10:23</v>
       </c>
       <c r="B37">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C37">
-        <v>37.64</v>
+        <v>36.49</v>
       </c>
       <c r="D37">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E37">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="F37">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 18:00:17</v>
+        <v>2023-09-24 11:21:06</v>
       </c>
       <c r="B38">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C38">
-        <v>36.76</v>
+        <v>36.49</v>
       </c>
       <c r="D38">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F38">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 23:11:57</v>
+        <v>2023-09-24 16:30:44</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C39">
-        <v>35.74</v>
+        <v>36.4</v>
       </c>
       <c r="D39">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E39">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F39">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 04:21:17</v>
+        <v>2023-09-24 21:41:49</v>
       </c>
       <c r="B40">
-        <v>27.1</v>
+        <v>27.83</v>
       </c>
       <c r="C40">
-        <v>37.07</v>
+        <v>36.4</v>
       </c>
       <c r="D40">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E40">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F40">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 09:31:36</v>
+        <v>2023-09-25 02:49:58</v>
       </c>
       <c r="B41">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C41">
-        <v>35.83</v>
+        <v>35.68</v>
       </c>
       <c r="D41">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E41">
         <v>26.8</v>
       </c>
       <c r="F41">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 14:41:38</v>
+        <v>2023-09-25 08:00:41</v>
       </c>
       <c r="B42">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="C42">
-        <v>37.15</v>
+        <v>35.46</v>
       </c>
       <c r="D42">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E42">
         <v>26.8</v>
       </c>
       <c r="F42">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 19:52:44</v>
+        <v>2023-09-25 13:10:06</v>
       </c>
       <c r="B43">
-        <v>26.9</v>
+        <v>27.77</v>
       </c>
       <c r="C43">
-        <v>36.49</v>
+        <v>35.46</v>
       </c>
       <c r="D43">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E43">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F43">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 01:02:11</v>
+        <v>2023-09-25 18:21:37</v>
       </c>
       <c r="B44">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C44">
-        <v>34.52</v>
+        <v>34.88</v>
       </c>
       <c r="D44">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E44">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F44">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 06:10:23</v>
+        <v>2023-09-25 23:30:41</v>
       </c>
       <c r="B45">
         <v>27.5</v>
       </c>
       <c r="C45">
-        <v>36.49</v>
+        <v>37.43</v>
       </c>
       <c r="D45">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E45">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F45">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 11:21:06</v>
+        <v>2023-09-26 04:41:29</v>
       </c>
       <c r="B46">
-        <v>27.5</v>
+        <v>27.78</v>
       </c>
       <c r="C46">
-        <v>36.49</v>
+        <v>37.79</v>
       </c>
       <c r="D46">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E46">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F46">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 16:30:44</v>
+        <v>2023-09-26 09:50:52</v>
       </c>
       <c r="B47">
-        <v>27.5</v>
+        <v>27.68</v>
       </c>
       <c r="C47">
-        <v>36.4</v>
+        <v>38.97</v>
       </c>
       <c r="D47">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E47">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F47">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 21:41:49</v>
+        <v>2023-09-26 15:01:02</v>
       </c>
       <c r="B48">
-        <v>27.83</v>
+        <v>28.2</v>
       </c>
       <c r="C48">
-        <v>36.4</v>
+        <v>38.97</v>
       </c>
       <c r="D48">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E48">
         <v>26.8</v>
       </c>
       <c r="F48">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 02:49:58</v>
+        <v>2023-09-26 20:11:41</v>
       </c>
       <c r="B49">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="C49">
-        <v>35.68</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E49">
-        <v>26.8</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 08:00:41</v>
+        <v>2023-09-27 01:20:47</v>
       </c>
       <c r="B50">
-        <v>27.9</v>
+        <v>29.44</v>
       </c>
       <c r="C50">
-        <v>35.46</v>
+        <v>34.51</v>
       </c>
       <c r="D50">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E50">
-        <v>26.8</v>
+        <v>28.1</v>
       </c>
       <c r="F50">
         <v>229</v>
@@ -1282,79 +1282,79 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 13:10:06</v>
+        <v>2023-09-27 06:30:45</v>
       </c>
       <c r="B51">
-        <v>27.77</v>
+        <v>29.44</v>
       </c>
       <c r="C51">
-        <v>35.46</v>
+        <v>39.99</v>
       </c>
       <c r="D51">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E51">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
       <c r="F51">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 18:21:37</v>
+        <v>2023-09-27 11:41:30</v>
       </c>
       <c r="B52">
-        <v>27.3</v>
+        <v>29.44</v>
       </c>
       <c r="C52">
-        <v>34.88</v>
+        <v>39.99</v>
       </c>
       <c r="D52">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E52">
-        <v>26.8</v>
+        <v>28.1</v>
       </c>
       <c r="F52">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 23:30:41</v>
+        <v>2023-09-27 16:50:58</v>
       </c>
       <c r="B53">
-        <v>27.5</v>
+        <v>29.26</v>
       </c>
       <c r="C53">
-        <v>37.43</v>
+        <v>39.99</v>
       </c>
       <c r="D53">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E53">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F53">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 04:41:29</v>
+        <v>2023-09-27 22:00:57</v>
       </c>
       <c r="B54">
-        <v>27.78</v>
+        <v>28.95</v>
       </c>
       <c r="C54">
-        <v>37.79</v>
+        <v>39.56</v>
       </c>
       <c r="D54">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E54">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F54">
         <v>229</v>
@@ -1362,1802 +1362,1842 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 09:50:52</v>
+        <v>2023-09-28 03:11:56</v>
       </c>
       <c r="B55">
-        <v>27.68</v>
+        <v>28.1</v>
       </c>
       <c r="C55">
-        <v>38.97</v>
+        <v>37.29</v>
       </c>
       <c r="D55">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E55">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F55">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 15:01:02</v>
+        <v>2023-09-28 08:21:03</v>
       </c>
       <c r="B56">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C56">
-        <v>38.97</v>
+        <v>37.5</v>
       </c>
       <c r="D56">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="E56">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="F56">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 20:11:41</v>
+        <v>2023-09-28 13:31:57</v>
       </c>
       <c r="B57">
-        <v>29.6</v>
+        <v>27.5</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>39.92</v>
       </c>
       <c r="D57">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="F57">
-        <v>228</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 01:20:47</v>
+        <v>2023-09-28 18:41:08</v>
       </c>
       <c r="B58">
-        <v>29.44</v>
+        <v>25.7</v>
       </c>
       <c r="C58">
-        <v>34.51</v>
+        <v>39.84</v>
       </c>
       <c r="D58">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="E58">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="F58">
-        <v>229</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 06:30:45</v>
+        <v>2023-09-28 23:51:36</v>
       </c>
       <c r="B59">
-        <v>29.44</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>39.99</v>
+        <v>38.15</v>
       </c>
       <c r="D59">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="E59">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="F59">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 11:41:30</v>
+        <v>2023-09-29 05:01:37</v>
       </c>
       <c r="B60">
-        <v>29.44</v>
+        <v>25.49</v>
       </c>
       <c r="C60">
-        <v>39.99</v>
+        <v>35.47</v>
       </c>
       <c r="D60">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="E60">
-        <v>28.1</v>
+        <v>25.5</v>
       </c>
       <c r="F60">
-        <v>229</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 16:50:58</v>
+        <v>2023-09-29 10:11:23</v>
       </c>
       <c r="B61">
-        <v>29.26</v>
+        <v>25.4</v>
       </c>
       <c r="C61">
-        <v>39.99</v>
+        <v>35.77</v>
       </c>
       <c r="D61">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="E61">
-        <v>27.1</v>
+        <v>25.5</v>
       </c>
       <c r="F61">
-        <v>229</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 22:00:57</v>
+        <v>2023-09-29 15:22:15</v>
       </c>
       <c r="B62">
-        <v>28.95</v>
+        <v>24.4</v>
       </c>
       <c r="C62">
-        <v>39.56</v>
+        <v>36.65</v>
       </c>
       <c r="D62">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="E62">
-        <v>27.6</v>
+        <v>24</v>
       </c>
       <c r="F62">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 03:11:56</v>
+        <v>2023-09-29 20:31:28</v>
       </c>
       <c r="B63">
-        <v>28.1</v>
+        <v>23.9</v>
       </c>
       <c r="C63">
-        <v>37.29</v>
+        <v>38.61</v>
       </c>
       <c r="D63">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="E63">
-        <v>27.6</v>
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 08:21:03</v>
+        <v>2023-09-30 01:36:37</v>
       </c>
       <c r="B64">
-        <v>28.1</v>
+        <v>23.8</v>
       </c>
       <c r="C64">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="D64">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="E64">
-        <v>27.6</v>
+        <v>22.1</v>
       </c>
       <c r="F64">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 13:31:57</v>
+        <v>2023-09-30 06:46:32</v>
       </c>
       <c r="B65">
-        <v>27.5</v>
+        <v>24.14</v>
       </c>
       <c r="C65">
-        <v>39.92</v>
+        <v>36.47</v>
       </c>
       <c r="D65">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E65">
-        <v>27.1</v>
+        <v>22.1</v>
       </c>
       <c r="F65">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 18:41:08</v>
+        <v>2023-09-30 11:50:35</v>
       </c>
       <c r="B66">
-        <v>25.7</v>
+        <v>24.12</v>
       </c>
       <c r="C66">
-        <v>39.84</v>
+        <v>39.47</v>
       </c>
       <c r="D66">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E66">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="F66">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 23:51:36</v>
+        <v>2023-09-30 17:01:59</v>
       </c>
       <c r="B67">
-        <v>25</v>
+        <v>24.14</v>
       </c>
       <c r="C67">
-        <v>38.15</v>
+        <v>39.4</v>
       </c>
       <c r="D67">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E67">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="F67">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 05:01:37</v>
+        <v>2023-09-30 22:10:32</v>
       </c>
       <c r="B68">
-        <v>25.49</v>
+        <v>23.88</v>
       </c>
       <c r="C68">
-        <v>35.47</v>
+        <v>37.21</v>
       </c>
       <c r="D68">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E68">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="F68">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 10:11:23</v>
+        <v>2023-10-01 03:20:30</v>
       </c>
       <c r="B69">
-        <v>25.4</v>
+        <v>23.49</v>
       </c>
       <c r="C69">
-        <v>35.77</v>
+        <v>34.07</v>
       </c>
       <c r="D69">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E69">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="F69">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 15:22:15</v>
+        <v>2023-10-01 08:32:59</v>
       </c>
       <c r="B70">
-        <v>24.4</v>
+        <v>23.49</v>
       </c>
       <c r="C70">
-        <v>36.65</v>
+        <v>38.22</v>
       </c>
       <c r="D70">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E70">
-        <v>24</v>
+        <v>22.2</v>
       </c>
       <c r="F70">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 20:31:28</v>
+        <v>2023-10-01 13:41:09</v>
       </c>
       <c r="B71">
-        <v>23.9</v>
+        <v>23.73</v>
       </c>
       <c r="C71">
-        <v>38.61</v>
+        <v>38.22</v>
       </c>
       <c r="D71">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E71">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F71">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 01:36:37</v>
+        <v>2023-10-01 18:53:53</v>
       </c>
       <c r="B72">
-        <v>23.8</v>
+        <v>23.62</v>
       </c>
       <c r="C72">
-        <v>39.5</v>
+        <v>38.15</v>
       </c>
       <c r="D72">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E72">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="F72">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 06:46:32</v>
+        <v>2023-10-02 00:00:50</v>
       </c>
       <c r="B73">
-        <v>24.14</v>
+        <v>24.88</v>
       </c>
       <c r="C73">
-        <v>36.47</v>
+        <v>36.26</v>
       </c>
       <c r="D73">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E73">
-        <v>22.1</v>
+        <v>23.5</v>
       </c>
       <c r="F73">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 11:50:35</v>
+        <v>2023-10-02 05:10:48</v>
       </c>
       <c r="B74">
-        <v>24.12</v>
+        <v>24.88</v>
       </c>
       <c r="C74">
-        <v>39.47</v>
+        <v>35.86</v>
       </c>
       <c r="D74">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="F74">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 17:01:59</v>
+        <v>2023-10-02 10:22:29</v>
       </c>
       <c r="B75">
-        <v>24.14</v>
+        <v>24.88</v>
       </c>
       <c r="C75">
-        <v>39.4</v>
+        <v>35.79</v>
       </c>
       <c r="D75">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E75">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="F75">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-30 22:10:32</v>
+        <v>2023-10-02 15:34:09</v>
       </c>
       <c r="B76">
-        <v>23.88</v>
+        <v>24.68</v>
       </c>
       <c r="C76">
-        <v>37.21</v>
+        <v>35.86</v>
       </c>
       <c r="D76">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="E76">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="F76">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 03:20:30</v>
+        <v>2023-10-02 20:43:01</v>
       </c>
       <c r="B77">
-        <v>23.49</v>
+        <v>23.9</v>
       </c>
       <c r="C77">
-        <v>34.07</v>
+        <v>35.86</v>
       </c>
       <c r="D77">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E77">
-        <v>22.2</v>
+        <v>23.5</v>
       </c>
       <c r="F77">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 08:32:59</v>
+        <v>2023-10-03 01:52:42</v>
       </c>
       <c r="B78">
-        <v>23.49</v>
+        <v>24.2</v>
       </c>
       <c r="C78">
-        <v>38.22</v>
+        <v>35.86</v>
       </c>
       <c r="D78">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="E78">
-        <v>22.2</v>
+        <v>20.1</v>
       </c>
       <c r="F78">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 13:41:09</v>
+        <v>2023-10-03 07:01:14</v>
       </c>
       <c r="B79">
-        <v>23.73</v>
+        <v>24.1</v>
       </c>
       <c r="C79">
-        <v>38.22</v>
+        <v>35.77</v>
       </c>
       <c r="D79">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E79">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="F79">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-01 18:53:53</v>
+        <v>2023-10-03 12:11:14</v>
       </c>
       <c r="B80">
-        <v>23.62</v>
+        <v>24.4</v>
       </c>
       <c r="C80">
-        <v>38.15</v>
+        <v>35.77</v>
       </c>
       <c r="D80">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E80">
         <v>22</v>
       </c>
       <c r="F80">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 00:00:50</v>
+        <v>2023-10-03 17:22:09</v>
       </c>
       <c r="B81">
-        <v>24.88</v>
+        <v>23.5</v>
       </c>
       <c r="C81">
-        <v>36.26</v>
+        <v>35.77</v>
       </c>
       <c r="D81">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E81">
-        <v>23.5</v>
+        <v>22.1</v>
       </c>
       <c r="F81">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 05:10:48</v>
+        <v>2023-10-03 22:33:38</v>
       </c>
       <c r="B82">
-        <v>24.88</v>
+        <v>23.79</v>
       </c>
       <c r="C82">
-        <v>35.86</v>
+        <v>35.04</v>
       </c>
       <c r="D82">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E82">
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="F82">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 10:22:29</v>
+        <v>2023-10-04 03:44:19</v>
       </c>
       <c r="B83">
-        <v>24.88</v>
+        <v>23.77</v>
       </c>
       <c r="C83">
-        <v>35.79</v>
+        <v>33.11</v>
       </c>
       <c r="D83">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="E83">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="F83">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 15:34:09</v>
+        <v>2023-10-04 08:53:55</v>
       </c>
       <c r="B84">
-        <v>24.68</v>
+        <v>23.78</v>
       </c>
       <c r="C84">
-        <v>35.86</v>
+        <v>38.72</v>
       </c>
       <c r="D84">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E84">
-        <v>23.5</v>
+        <v>21.6</v>
       </c>
       <c r="F84">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-02 20:43:01</v>
+        <v>2023-10-04 14:03:24</v>
       </c>
       <c r="B85">
-        <v>23.9</v>
+        <v>23.48</v>
       </c>
       <c r="C85">
-        <v>35.86</v>
+        <v>38.86</v>
       </c>
       <c r="D85">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E85">
-        <v>23.5</v>
+        <v>21.7</v>
       </c>
       <c r="F85">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 01:52:42</v>
+        <v>2023-10-04 19:11:58</v>
       </c>
       <c r="B86">
-        <v>24.2</v>
+        <v>22.88</v>
       </c>
       <c r="C86">
-        <v>35.86</v>
+        <v>39.15</v>
       </c>
       <c r="D86">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E86">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="F86">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 07:01:14</v>
+        <v>2023-10-05 00:23:05</v>
       </c>
       <c r="B87">
-        <v>24.1</v>
+        <v>22.87</v>
       </c>
       <c r="C87">
-        <v>35.77</v>
+        <v>37.71</v>
       </c>
       <c r="D87">
         <v>328</v>
       </c>
       <c r="E87">
-        <v>20.1</v>
+        <v>22.3</v>
       </c>
       <c r="F87">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 12:11:14</v>
+        <v>2023-10-05 05:32:34</v>
       </c>
       <c r="B88">
-        <v>24.4</v>
+        <v>22.88</v>
       </c>
       <c r="C88">
-        <v>35.77</v>
+        <v>35.85</v>
       </c>
       <c r="D88">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="F88">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 17:22:09</v>
+        <v>2023-10-05 10:42:20</v>
       </c>
       <c r="B89">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="C89">
-        <v>35.77</v>
+        <v>35.85</v>
       </c>
       <c r="D89">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E89">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="F89">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-03 22:33:38</v>
+        <v>2023-10-05 15:52:17</v>
       </c>
       <c r="B90">
-        <v>23.79</v>
+        <v>23.8</v>
       </c>
       <c r="C90">
-        <v>35.04</v>
+        <v>35.85</v>
       </c>
       <c r="D90">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>22.3</v>
       </c>
       <c r="F90">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 03:44:19</v>
+        <v>2023-10-05 21:02:38</v>
       </c>
       <c r="B91">
-        <v>23.77</v>
+        <v>22.7</v>
       </c>
       <c r="C91">
-        <v>33.11</v>
+        <v>35.85</v>
       </c>
       <c r="D91">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E91">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F91">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 08:53:55</v>
+        <v>2023-10-06 02:15:53</v>
       </c>
       <c r="B92">
-        <v>23.78</v>
+        <v>22.7</v>
       </c>
       <c r="C92">
-        <v>38.72</v>
+        <v>35.85</v>
       </c>
       <c r="D92">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E92">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="F92">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 14:03:24</v>
+        <v>2023-10-06 07:22:34</v>
       </c>
       <c r="B93">
-        <v>23.48</v>
+        <v>22.6</v>
       </c>
       <c r="C93">
-        <v>38.86</v>
+        <v>33.11</v>
       </c>
       <c r="D93">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="E93">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="F93">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-04 19:11:58</v>
+        <v>2023-10-06 12:33:29</v>
       </c>
       <c r="B94">
-        <v>22.88</v>
+        <v>22.39</v>
       </c>
       <c r="C94">
-        <v>39.15</v>
+        <v>32.33</v>
       </c>
       <c r="D94">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="E94">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="F94">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 00:23:05</v>
+        <v>2023-10-06 17:43:31</v>
       </c>
       <c r="B95">
-        <v>22.87</v>
+        <v>22.28</v>
       </c>
       <c r="C95">
-        <v>37.71</v>
+        <v>35.21</v>
       </c>
       <c r="D95">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E95">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="F95">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 05:32:34</v>
+        <v>2023-10-06 22:52:58</v>
       </c>
       <c r="B96">
-        <v>22.88</v>
+        <v>22.19</v>
       </c>
       <c r="C96">
-        <v>35.85</v>
+        <v>35.35</v>
       </c>
       <c r="D96">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E96">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="F96">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 10:42:20</v>
+        <v>2023-10-07 04:04:23</v>
       </c>
       <c r="B97">
-        <v>24.9</v>
+        <v>22.3</v>
       </c>
       <c r="C97">
-        <v>35.85</v>
+        <v>35.35</v>
       </c>
       <c r="D97">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E97">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="F97">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 15:52:17</v>
+        <v>2023-10-07 09:13:04</v>
       </c>
       <c r="B98">
-        <v>23.8</v>
+        <v>22.4</v>
       </c>
       <c r="C98">
-        <v>35.85</v>
+        <v>36.9</v>
       </c>
       <c r="D98">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="E98">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="F98">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-05 21:02:38</v>
+        <v>2023-10-07 14:24:16</v>
       </c>
       <c r="B99">
-        <v>22.7</v>
+        <v>23.21</v>
       </c>
       <c r="C99">
-        <v>35.85</v>
+        <v>36.47</v>
       </c>
       <c r="D99">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="E99">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="F99">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 02:15:53</v>
+        <v>2023-10-07 19:33:10</v>
       </c>
       <c r="B100">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="C100">
-        <v>35.85</v>
+        <v>36.47</v>
       </c>
       <c r="D100">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E100">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="F100">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 07:22:34</v>
+        <v>2023-10-08 00:43:08</v>
       </c>
       <c r="B101">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="C101">
-        <v>33.11</v>
+        <v>36.9</v>
       </c>
       <c r="D101">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="E101">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="F101">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 12:33:29</v>
+        <v>2023-10-08 05:53:18</v>
       </c>
       <c r="B102">
-        <v>22.39</v>
+        <v>23.5</v>
       </c>
       <c r="C102">
-        <v>32.33</v>
+        <v>36.77</v>
       </c>
       <c r="D102">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="E102">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="F102">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 17:43:31</v>
+        <v>2023-10-08 11:03:17</v>
       </c>
       <c r="B103">
-        <v>22.28</v>
+        <v>23.5</v>
       </c>
       <c r="C103">
-        <v>35.21</v>
+        <v>36.69</v>
       </c>
       <c r="D103">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E103">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="F103">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-06 22:52:58</v>
+        <v>2023-10-08 16:16:15</v>
       </c>
       <c r="B104">
-        <v>22.19</v>
+        <v>23.75</v>
       </c>
       <c r="C104">
-        <v>35.35</v>
+        <v>35.97</v>
       </c>
       <c r="D104">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E104">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="F104">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 04:04:23</v>
+        <v>2023-10-08 21:23:23</v>
       </c>
       <c r="B105">
-        <v>22.3</v>
+        <v>23.74</v>
       </c>
       <c r="C105">
-        <v>35.35</v>
+        <v>36.61</v>
       </c>
       <c r="D105">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E105">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="F105">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 09:13:04</v>
+        <v>2023-10-09 02:34:23</v>
       </c>
       <c r="B106">
-        <v>22.4</v>
+        <v>23.15</v>
       </c>
       <c r="C106">
-        <v>36.9</v>
+        <v>35.97</v>
       </c>
       <c r="D106">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E106">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="F106">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 14:24:16</v>
+        <v>2023-10-09 07:43:58</v>
       </c>
       <c r="B107">
-        <v>23.21</v>
+        <v>23.15</v>
       </c>
       <c r="C107">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D107">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E107">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="F107">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-07 19:33:10</v>
+        <v>2023-10-09 12:55:32</v>
       </c>
       <c r="B108">
-        <v>22.8</v>
+        <v>23.63</v>
       </c>
       <c r="C108">
-        <v>36.47</v>
+        <v>36.4</v>
       </c>
       <c r="D108">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E108">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="F108">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 00:43:08</v>
+        <v>2023-10-09 18:05:33</v>
       </c>
       <c r="B109">
-        <v>23.5</v>
+        <v>23.62</v>
       </c>
       <c r="C109">
-        <v>36.9</v>
+        <v>36.11</v>
       </c>
       <c r="D109">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E109">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="F109">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 05:53:18</v>
+        <v>2023-10-09 23:13:52</v>
       </c>
       <c r="B110">
         <v>23.5</v>
       </c>
       <c r="C110">
-        <v>36.77</v>
+        <v>35.83</v>
       </c>
       <c r="D110">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E110">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F110">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 11:03:17</v>
+        <v>2023-10-10 04:23:47</v>
       </c>
       <c r="B111">
         <v>23.5</v>
       </c>
       <c r="C111">
-        <v>36.69</v>
+        <v>36.02</v>
       </c>
       <c r="D111">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E111">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F111">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 16:16:15</v>
+        <v>2023-10-10 09:33:45</v>
       </c>
       <c r="B112">
-        <v>23.75</v>
+        <v>23.5</v>
       </c>
       <c r="C112">
-        <v>35.97</v>
+        <v>36.24</v>
       </c>
       <c r="D112">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E112">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F112">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-08 21:23:23</v>
+        <v>2023-10-10 14:44:31</v>
       </c>
       <c r="B113">
-        <v>23.74</v>
+        <v>23.41</v>
       </c>
       <c r="C113">
-        <v>36.61</v>
+        <v>34.34</v>
       </c>
       <c r="D113">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E113">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F113">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 02:34:23</v>
+        <v>2023-10-10 19:54:31</v>
       </c>
       <c r="B114">
-        <v>23.15</v>
+        <v>23.51</v>
       </c>
       <c r="C114">
-        <v>35.97</v>
+        <v>36.02</v>
       </c>
       <c r="D114">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="E114">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F114">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 07:43:58</v>
+        <v>2023-10-11 01:04:12</v>
       </c>
       <c r="B115">
-        <v>23.15</v>
+        <v>23.5</v>
       </c>
       <c r="C115">
-        <v>36.4</v>
+        <v>36.02</v>
       </c>
       <c r="D115">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E115">
         <v>22.9</v>
       </c>
       <c r="F115">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 12:55:32</v>
+        <v>2023-10-11 06:14:12</v>
       </c>
       <c r="B116">
-        <v>23.63</v>
+        <v>23.49</v>
       </c>
       <c r="C116">
-        <v>36.4</v>
+        <v>35.31</v>
       </c>
       <c r="D116">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E116">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F116">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-09 18:05:33</v>
+        <v>2023-10-11 11:24:12</v>
       </c>
       <c r="B117">
-        <v>23.62</v>
+        <v>23.49</v>
       </c>
       <c r="C117">
-        <v>36.11</v>
+        <v>36.99</v>
       </c>
       <c r="D117">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E117">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="F117">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-09 23:13:52</v>
+        <v>2023-10-11 16:34:10</v>
       </c>
       <c r="B118">
-        <v>23.5</v>
+        <v>23.39</v>
       </c>
       <c r="C118">
-        <v>35.83</v>
+        <v>36.99</v>
       </c>
       <c r="D118">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E118">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F118">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 04:23:47</v>
+        <v>2023-10-11 21:46:16</v>
       </c>
       <c r="B119">
-        <v>23.5</v>
+        <v>23.05</v>
       </c>
       <c r="C119">
-        <v>36.02</v>
+        <v>35.53</v>
       </c>
       <c r="D119">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E119">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="F119">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 09:33:45</v>
+        <v>2023-10-12 02:56:05</v>
       </c>
       <c r="B120">
-        <v>23.5</v>
+        <v>23.49</v>
       </c>
       <c r="C120">
-        <v>36.24</v>
+        <v>33.92</v>
       </c>
       <c r="D120">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E120">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="F120">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 14:44:31</v>
+        <v>2023-10-12 08:04:26</v>
       </c>
       <c r="B121">
-        <v>23.41</v>
+        <v>23.79</v>
       </c>
       <c r="C121">
-        <v>34.34</v>
+        <v>34.53</v>
       </c>
       <c r="D121">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E121">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="F121">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-10 19:54:31</v>
+        <v>2023-10-12 13:14:30</v>
       </c>
       <c r="B122">
-        <v>23.51</v>
+        <v>23.68</v>
       </c>
       <c r="C122">
-        <v>36.02</v>
+        <v>34.6</v>
       </c>
       <c r="D122">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E122">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="F122">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 01:04:12</v>
+        <v>2023-10-12 18:24:29</v>
       </c>
       <c r="B123">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C123">
-        <v>36.02</v>
+        <v>32.85</v>
       </c>
       <c r="D123">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E123">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="F123">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 06:14:12</v>
+        <v>2023-10-12 23:34:28</v>
       </c>
       <c r="B124">
-        <v>23.49</v>
+        <v>23.69</v>
       </c>
       <c r="C124">
-        <v>35.31</v>
+        <v>35.92</v>
       </c>
       <c r="D124">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E124">
-        <v>22.9</v>
+        <v>22.1</v>
       </c>
       <c r="F124">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 11:24:12</v>
+        <v>2023-10-13 04:44:26</v>
       </c>
       <c r="B125">
-        <v>23.49</v>
+        <v>23.69</v>
       </c>
       <c r="C125">
-        <v>36.99</v>
+        <v>36.44</v>
       </c>
       <c r="D125">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E125">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F125">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 16:34:10</v>
+        <v>2023-10-13 09:54:40</v>
       </c>
       <c r="B126">
-        <v>23.39</v>
+        <v>23.76</v>
       </c>
       <c r="C126">
-        <v>36.99</v>
+        <v>36.65</v>
       </c>
       <c r="D126">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E126">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="F126">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-11 21:46:16</v>
+        <v>2023-10-13 15:04:32</v>
       </c>
       <c r="B127">
-        <v>23.05</v>
+        <v>23.6</v>
       </c>
       <c r="C127">
-        <v>35.53</v>
+        <v>37.1</v>
       </c>
       <c r="D127">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E127">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="F127">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 02:56:05</v>
+        <v>2023-10-13 20:14:31</v>
       </c>
       <c r="B128">
-        <v>23.49</v>
+        <v>23.4</v>
       </c>
       <c r="C128">
-        <v>33.92</v>
+        <v>36.07</v>
       </c>
       <c r="D128">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E128">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="F128">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 08:04:26</v>
+        <v>2023-10-14 01:25:08</v>
       </c>
       <c r="B129">
-        <v>23.79</v>
+        <v>23.49</v>
       </c>
       <c r="C129">
-        <v>34.53</v>
+        <v>36.22</v>
       </c>
       <c r="D129">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E129">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="F129">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 13:14:30</v>
+        <v>2023-10-14 06:36:37</v>
       </c>
       <c r="B130">
-        <v>23.68</v>
+        <v>23.59</v>
       </c>
       <c r="C130">
-        <v>34.6</v>
+        <v>37.11</v>
       </c>
       <c r="D130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E130">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F130">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-12 18:24:29</v>
+        <v>2023-10-14 11:45:45</v>
       </c>
       <c r="B131">
-        <v>23.8</v>
+        <v>23.59</v>
       </c>
       <c r="C131">
-        <v>32.85</v>
+        <v>37.04</v>
       </c>
       <c r="D131">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E131">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="F131">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-12 23:34:28</v>
+        <v>2023-10-14 16:56:01</v>
       </c>
       <c r="B132">
-        <v>23.69</v>
+        <v>23.1</v>
       </c>
       <c r="C132">
-        <v>35.92</v>
+        <v>36.97</v>
       </c>
       <c r="D132">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E132">
-        <v>22.1</v>
+        <v>22.9</v>
       </c>
       <c r="F132">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 04:44:26</v>
+        <v>2023-10-14 22:05:40</v>
       </c>
       <c r="B133">
-        <v>23.69</v>
+        <v>22.9</v>
       </c>
       <c r="C133">
-        <v>36.44</v>
+        <v>36.97</v>
       </c>
       <c r="D133">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E133">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F133">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 09:54:40</v>
+        <v>2023-10-15 03:15:54</v>
       </c>
       <c r="B134">
-        <v>23.76</v>
+        <v>23.39</v>
       </c>
       <c r="C134">
-        <v>36.65</v>
+        <v>37.4</v>
       </c>
       <c r="D134">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E134">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F134">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 15:04:32</v>
+        <v>2023-10-15 08:25:49</v>
       </c>
       <c r="B135">
-        <v>23.6</v>
+        <v>23.48</v>
       </c>
       <c r="C135">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="D135">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E135">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F135">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-13 20:14:31</v>
+        <v>2023-10-15 13:36:16</v>
       </c>
       <c r="B136">
-        <v>23.4</v>
+        <v>23.38</v>
       </c>
       <c r="C136">
-        <v>36.07</v>
+        <v>37.54</v>
       </c>
       <c r="D136">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E136">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F136">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 01:25:08</v>
+        <v>2023-10-15 18:45:26</v>
       </c>
       <c r="B137">
-        <v>23.49</v>
+        <v>22.9</v>
       </c>
       <c r="C137">
-        <v>36.22</v>
+        <v>37.76</v>
       </c>
       <c r="D137">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="E137">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F137">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 06:36:37</v>
+        <v>2023-10-15 23:55:44</v>
       </c>
       <c r="B138">
-        <v>23.59</v>
+        <v>23.18</v>
       </c>
       <c r="C138">
-        <v>37.11</v>
+        <v>37.32</v>
       </c>
       <c r="D138">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E138">
         <v>22.8</v>
       </c>
       <c r="F138">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 11:45:45</v>
+        <v>2023-10-16 05:05:31</v>
       </c>
       <c r="B139">
-        <v>23.59</v>
+        <v>23.25</v>
       </c>
       <c r="C139">
-        <v>37.04</v>
+        <v>36.39</v>
       </c>
       <c r="D139">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E139">
         <v>22.8</v>
       </c>
       <c r="F139">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 16:56:01</v>
+        <v>2023-10-16 10:11:31</v>
       </c>
       <c r="B140">
-        <v>23.1</v>
+        <v>23.25</v>
       </c>
       <c r="C140">
-        <v>36.97</v>
+        <v>35.89</v>
       </c>
       <c r="D140">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E140">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F140">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-14 22:05:40</v>
+        <v>2023-10-16 15:19:30</v>
       </c>
       <c r="B141">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="C141">
-        <v>36.97</v>
+        <v>36.03</v>
       </c>
       <c r="D141">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E141">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="F141">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 03:15:54</v>
+        <v>2023-10-16 20:29:17</v>
       </c>
       <c r="B142">
-        <v>23.39</v>
+        <v>23</v>
       </c>
       <c r="C142">
-        <v>37.4</v>
+        <v>36.75</v>
       </c>
       <c r="D142">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E142">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="F142">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 08:25:49</v>
+        <v>2023-10-17 01:39:15</v>
       </c>
       <c r="B143">
-        <v>23.48</v>
+        <v>23</v>
       </c>
       <c r="C143">
-        <v>37.4</v>
+        <v>38.11</v>
       </c>
       <c r="D143">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E143">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F143">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 13:36:16</v>
+        <v>2023-10-17 06:49:13</v>
       </c>
       <c r="B144">
-        <v>23.38</v>
+        <v>22.9</v>
       </c>
       <c r="C144">
-        <v>37.54</v>
+        <v>35.09</v>
       </c>
       <c r="D144">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E144">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F144">
-        <v>104</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>2023-10-17 11:59:49</v>
+      </c>
+      <c r="B145">
+        <v>22.99</v>
+      </c>
+      <c r="C145">
+        <v>38.09</v>
+      </c>
+      <c r="D145">
+        <v>267</v>
+      </c>
+      <c r="E145">
+        <v>22.5</v>
+      </c>
+      <c r="F145">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>2023-10-17 17:10:10</v>
+      </c>
+      <c r="B146">
+        <v>22.39</v>
+      </c>
+      <c r="C146">
+        <v>38.09</v>
+      </c>
+      <c r="D146">
+        <v>278</v>
+      </c>
+      <c r="E146">
+        <v>22.2</v>
+      </c>
+      <c r="F146">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3209,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F146"/>
   </ignoredErrors>
 </worksheet>
 </file>